--- a/data_import/to_upload.xlsx
+++ b/data_import/to_upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,17 +549,17 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22-074-CER-0002</t>
+          <t>22-074-DOS-0002</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CERTIFICATES AND DECLARATIONS OF CONFORMITY</t>
+          <t>FINAL QUALITY DOSSIER</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -571,7 +571,11 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Enviado Rev.  //   Rev. </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,17 +611,17 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22-074-DOS-0002</t>
+          <t>22-074-CER-0002</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>FINAL QUALITY DOSSIER</t>
+          <t>CERTIFICATES AND DECLARATIONS OF CONFORMITY</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dossier</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -629,11 +633,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Enviado Rev.  //   Rev. </t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -669,22 +669,22 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22-075-MAN-0001</t>
+          <t>22-075-VDB-0002</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>INSTALLATION, OPERATION AND MAINTENANCE MANUAL 22-075</t>
+          <t>VENDOR DATA BOOK 22-075</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -693,7 +693,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Rev.  // 22-04-2024 Enviado Rev.  //    Rev. </t>
+          <t xml:space="preserve">   Rev. </t>
         </is>
       </c>
     </row>
@@ -731,17 +731,17 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22-075-DOS-0002</t>
+          <t>22-075-CER-0004</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>FINAL QUALITY DOSSIER 22-075</t>
+          <t>TEST AND CERTIFICATION OF MATERIALS 22-075</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Dossier</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -793,12 +793,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22-075-VDB-0002</t>
+          <t>22-075-DOS-0002</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>VENDOR DATA BOOK 22-075</t>
+          <t>FINAL QUALITY DOSSIER 22-075</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -917,22 +917,22 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22-075-CER-0004</t>
+          <t>22-075-MAN-0001</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TEST AND CERTIFICATION OF MATERIALS 22-075</t>
+          <t>INSTALLATION, OPERATION AND MAINTENANCE MANUAL 22-075</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Rev. </t>
+          <t xml:space="preserve">   Rev.  // 22-04-2024 Enviado Rev.  //    Rev. </t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23-027-LIS-0017</t>
+          <t>23-027-DOS-0002</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
+          <t>FINAL QUALITY DOSSIER</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Repuestos</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1153,17 +1153,17 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23-027-DOS-0002</t>
+          <t>23-027-LIS-0016</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>FINAL QUALITY DOSSIER</t>
+          <t>SPARE PARTS LIST FOR PRECOMMISSIONING, COMMISSIONING AND START-UP</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Dossier</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1211,12 +1211,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23-027-LIS-0016</t>
+          <t>23-027-LIS-0017</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SPARE PARTS LIST FOR PRECOMMISSIONING, COMMISSIONING AND START-UP</t>
+          <t>SPARE PARTS LIST FOR 2 YEARS OF OPERATION</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1443,17 +1443,17 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23-037-DOS-0002</t>
+          <t>23-037-LIS-0016</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>NFXP3 - MANUFACTURING RECORDS BOOK - LEVEL GAUGES</t>
+          <t>NFXP3 - SPARE PARTS LIST FOR PRECOMMISSIONING, COMMISSIONING AND START-UP - LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Dossier</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1559,17 +1559,17 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23-037-LIS-0016</t>
+          <t>23-037-DOS-0002</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NFXP3 - SPARE PARTS LIST FOR PRECOMMISSIONING, COMMISSIONING AND START-UP - LEVEL GAUGES</t>
+          <t>NFXP3 - MANUFACTURING RECORDS BOOK - LEVEL GAUGES</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Repuestos</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1868,22 +1868,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5022_20-1043010910-00004</t>
+          <t>5022_20-1043010910-00007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23-074-DOS-0002</t>
+          <t>23-074-LIS-0024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NFXP4 - MANUFACTURING RECORDS BOOK FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
+          <t>NFXP4 - PRELIMINARY CARGO LIST FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Dossier</t>
+          <t>Packing</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1930,22 +1930,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5022_20-1043010910-00007</t>
+          <t>5022_20-1043010910-00004</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23-074-LIS-0024</t>
+          <t>23-074-DOS-0002</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NFXP4 - PRELIMINARY CARGO LIST FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
+          <t>NFXP4 - MANUFACTURING RECORDS BOOK FOR ORIFICE PLATES AND RESTRICTION ORIFICE</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Packing</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2264,38 +2264,42 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P-24/028-S00</t>
+          <t>P-24/044-S00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>12-06-2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01-06-2024</t>
+          <t>12-09-2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PO 15282</t>
+          <t>7080113517</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ASTCOR</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Nivel</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>V-MAN1642-2206-400-CER-001</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>24-028-CER-0001</t>
+          <t>24-044-CER-0001</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2322,52 +2326,52 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P-24/034-S00</t>
+          <t>P-24/044-S00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>12-06-2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15-07-2024</t>
+          <t>12-09-2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4900042491 / 4900042496</t>
+          <t>7080113517</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>REPSOL PAMPILLA</t>
+          <t>CEPSA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Temperatura</t>
+          <t>Nivel</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>V-MAN1642-2206-400-SPL-001</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>24-034-CER-001</t>
+          <t>24-044-SPL-0001</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Certificados de pruebas y materiales 3.1</t>
+          <t>LISTA DE REPUESTOS PARA 2 AÑOS</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Repuestos</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2414,22 +2418,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>V-MAN1642-2206-400-CER-001</t>
+          <t>V-MAN1642-2206-400-LIS-001</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>24-044-CER-0001</t>
+          <t>24-044-LIS-0002</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>CERTIFICADO DE PRUEBAS Y MATERIALES 3.1</t>
+          <t>PACKING LIST Y AUTORIZACIÓN DE ENVÍO PARA FIRMA POR CEPSA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Certificados</t>
+          <t>Packing</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2476,22 +2480,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>V-MAN1642-2206-400-SPL-001</t>
+          <t>V-MAN1642-2206-400-DOS-001</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>24-044-SPL-0001</t>
+          <t>24-044-DOS-0001</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>LISTA DE REPUESTOS PARA 2 AÑOS</t>
+          <t>DOSSIER FINAL</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Repuestos</t>
+          <t>Dossier</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2538,22 +2542,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>V-MAN1642-2206-400-LIS-001</t>
+          <t>V-MAN1642-2206-400-CER-002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>24-044-LIS-0002</t>
+          <t>24-044-CER-0002</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>PACKING LIST Y AUTORIZACIÓN DE ENVÍO PARA FIRMA POR CEPSA</t>
+          <t>CERTIFICACIONES CE DE CONFORMIDAD</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Packing</t>
+          <t>Certificados</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2567,130 +2571,6 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>P-24/044-S00</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>12-06-2024</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>12-09-2024</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7080113517</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>CEPSA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Nivel</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>V-MAN1642-2206-400-DOS-001</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>24-044-DOS-0001</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>DOSSIER FINAL</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Dossier</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>P-24/044-S00</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>12-06-2024</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>12-09-2024</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>7080113517</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>CEPSA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Nivel</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>V-MAN1642-2206-400-CER-002</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>24-044-CER-0002</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>CERTIFICACIONES CE DE CONFORMIDAD</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Certificados</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
